--- a/RegressionTests/Unit_Test_5/transformed_secondzip/aptrans_Scheme_601010.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_secondzip/aptrans_Scheme_601010.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="79">
   <si>
     <t>Remco Ltd</t>
   </si>
@@ -229,31 +229,28 @@
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>refno</t>
+    <t>SURNAME</t>
   </si>
   <si>
-    <t>ppsno</t>
+    <t>FORENAME</t>
   </si>
   <si>
-    <t>payroll</t>
+    <t>REFNO</t>
   </si>
   <si>
-    <t>ee</t>
+    <t>PPSNO</t>
   </si>
   <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>avc</t>
-  </si>
-  <si>
-    <t>845</t>
+    <t>PAYROLL</t>
   </si>
   <si>
     <t>EE</t>
   </si>
   <si>
     <t>ER</t>
+  </si>
+  <si>
+    <t>845</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -23410,28 +23407,28 @@
         <v>61</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25">
@@ -23443,13 +23440,13 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <v>235.42</v>
@@ -23491,7 +23488,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G4">
         <v>500.0</v>
@@ -23512,7 +23509,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5">
         <v>160.42</v>
@@ -23851,10 +23848,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -23873,22 +23870,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -23910,24 +23907,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
         <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_5/transformed_secondzip/aptrans_Scheme_601010.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_secondzip/aptrans_Scheme_601010.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="145">
   <si>
     <t>Remco Ltd</t>
   </si>
@@ -346,7 +346,7 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>1161520</t>
+    <t>1178489</t>
   </si>
   <si>
     <t>101001</t>
@@ -355,43 +355,40 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>01/05/2021</t>
+    <t>18/08/2021</t>
   </si>
   <si>
-    <t>8,000.00</t>
+    <t>7,517.33</t>
   </si>
   <si>
-    <t>ILIM Test 2</t>
+    <t>01/08/2021</t>
   </si>
   <si>
-    <t>1158565</t>
+    <t>ILIM August 2021</t>
   </si>
   <si>
-    <t>15/04/2021</t>
+    <t>1173971</t>
   </si>
   <si>
-    <t>7,433.97</t>
+    <t>16/07/2021</t>
   </si>
   <si>
-    <t>01/04/2021</t>
+    <t>1,533.32</t>
   </si>
   <si>
-    <t>ILIM April 2021</t>
+    <t>01/06/2021</t>
   </si>
   <si>
-    <t>1155233</t>
+    <t>ILIM Julne 2021</t>
   </si>
   <si>
-    <t>15/03/2021</t>
+    <t>1173522</t>
   </si>
   <si>
-    <t>29/03/2021</t>
+    <t>5,984.01</t>
   </si>
   <si>
-    <t>4,282.75</t>
-  </si>
-  <si>
-    <t>ILIM R. O'Brien TVIN</t>
+    <t>ILIM June 2021</t>
   </si>
   <si>
     <t>Annually</t>
@@ -625,10 +622,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
     </border>
   </borders>
@@ -661,7 +658,7 @@
       <protection/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -835,16 +832,19 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -23734,7 +23734,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>73</v>
       </c>
       <c r="B5" t="s">
@@ -23757,7 +23757,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>74</v>
       </c>
       <c r="B6" t="s">
@@ -23777,7 +23777,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="52" t="s">
         <v>75</v>
       </c>
       <c r="B7" t="s">
@@ -23824,7 +23824,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="52" t="s">
         <v>76</v>
       </c>
       <c r="B9" t="s">
@@ -23850,7 +23850,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="52" t="s">
         <v>77</v>
       </c>
       <c r="B10" t="s">
@@ -23876,7 +23876,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="52" t="s">
         <v>78</v>
       </c>
       <c r="B11" t="s">
@@ -23902,7 +23902,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="52" t="s">
         <v>79</v>
       </c>
       <c r="B12" t="s">
@@ -23928,7 +23928,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="52" t="s">
         <v>79</v>
       </c>
       <c r="B13" t="s">
@@ -23978,7 +23978,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="52" t="s">
         <v>80</v>
       </c>
       <c r="C15" t="s">
@@ -24001,7 +24001,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="52" t="s">
         <v>81</v>
       </c>
       <c r="B16" t="s">
@@ -24027,13 +24027,13 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="53" t="s">
         <v>23</v>
       </c>
       <c r="E17" t="s">
@@ -24053,13 +24053,13 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="53" t="s">
         <v>53</v>
       </c>
       <c r="E18" t="s">
@@ -24079,7 +24079,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="30">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="52" t="s">
         <v>84</v>
       </c>
       <c r="B19" t="s">
@@ -24105,7 +24105,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="30">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="52" t="s">
         <v>85</v>
       </c>
       <c r="B20" t="s">
@@ -24197,31 +24197,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="53" t="s">
+      <c r="I12" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -24248,10 +24248,10 @@
         <v>103</v>
       </c>
       <c r="H13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -24259,7 +24259,7 @@
         <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
         <v>100</v>
@@ -24268,19 +24268,19 @@
         <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
@@ -24288,7 +24288,7 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
         <v>100</v>
@@ -24297,106 +24297,106 @@
         <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
         <v>112</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" t="s">
         <v>113</v>
-      </c>
-      <c r="H15" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
         <v>115</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>116</v>
-      </c>
-      <c r="C16" t="s">
-        <v>117</v>
       </c>
       <c r="D16" t="s">
         <v>101</v>
       </c>
       <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
         <v>118</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>119</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
         <v>120</v>
-      </c>
-      <c r="H16" t="s">
-        <v>119</v>
-      </c>
-      <c r="I16" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
         <v>101</v>
       </c>
       <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" t="s">
         <v>123</v>
       </c>
-      <c r="F17" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" t="s">
         <v>124</v>
-      </c>
-      <c r="H17" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
         <v>101</v>
       </c>
       <c r="E18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" t="s">
         <v>127</v>
       </c>
-      <c r="F18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" t="s">
         <v>128</v>
-      </c>
-      <c r="H18" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
@@ -24404,28 +24404,28 @@
         <v>98</v>
       </c>
       <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
         <v>130</v>
-      </c>
-      <c r="C19" t="s">
-        <v>131</v>
       </c>
       <c r="D19" t="s">
         <v>101</v>
       </c>
       <c r="E19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" t="s">
         <v>132</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>133</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>134</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>135</v>
-      </c>
-      <c r="I19" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15">
@@ -24433,28 +24433,28 @@
         <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
         <v>101</v>
       </c>
       <c r="E20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" t="s">
         <v>138</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" t="s">
         <v>139</v>
       </c>
-      <c r="G20" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>140</v>
-      </c>
-      <c r="I20" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -24462,28 +24462,28 @@
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
         <v>101</v>
       </c>
       <c r="E21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" t="s">
         <v>143</v>
       </c>
-      <c r="F21" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>144</v>
-      </c>
-      <c r="I21" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
